--- a/biology/Virologie/Torradovirus/Torradovirus.xlsx
+++ b/biology/Virologie/Torradovirus/Torradovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Torradovirus est un genre de virus de la famille des Secoviridae, qui comprend cinq espèces acceptées par l'ICTV. Ce sont des virus à ARN linéaire à simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore, qui infectent les plantes (phytovirus).
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Torradovirus », est dérivé du nom de l'espèce-type, Tomato torrado virus. « Torrado » est un terme espagnol qui signifie « grillé, torréfié » en référence à la nécrose sévère (phénotype « brûlé ») observée chez les plantes infectées par ce virus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Torradovirus », est dérivé du nom de l'espèce-type, Tomato torrado virus. « Torrado » est un terme espagnol qui signifie « grillé, torréfié » en référence à la nécrose sévère (phénotype « brûlé ») observée chez les plantes infectées par ce virus.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions, non enveloppés, sont des particules à capside quasi-sphérique à symétrie icosaédrique de 25 à 30 nm de diamètre (T=pseudo3)[2].
-Le génome, bipartite, est réparti en deux segments d'ARN simple brin de polarité positive, linéaire, ARN1 et ARN2, de 7 kb et 4,6 à 5,4 kb respectivement. L'extrémité 5' a une protéine liée au génome (VPg)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions, non enveloppés, sont des particules à capside quasi-sphérique à symétrie icosaédrique de 25 à 30 nm de diamètre (T=pseudo3).
+Le génome, bipartite, est réparti en deux segments d'ARN simple brin de polarité positive, linéaire, ARN1 et ARN2, de 7 kb et 4,6 à 5,4 kb respectivement. L'extrémité 5' a une protéine liée au génome (VPg).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 janvier 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 janvier 2021) :
 Carrot torradovirus 1 (CaTV 1)
 Lettuce necrotic leaf curl virus (LNLCV)
 Motherwort yellow mottle virus (MYMoV)
